--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_General.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>DeepAR</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5811703937302604</v>
+        <v>0.5705563583352558</v>
       </c>
       <c r="C2">
-        <v>0.5168708573734154</v>
+        <v>0.5061643396480886</v>
       </c>
       <c r="D2">
-        <v>0.3292959022499392</v>
+        <v>0.3091868876185869</v>
       </c>
       <c r="E2">
-        <v>0.566608185486434</v>
+        <v>0.5419042012268845</v>
       </c>
       <c r="F2">
-        <v>0.2091895337005355</v>
+        <v>0.2109952552273182</v>
       </c>
       <c r="G2">
-        <v>4.003325553388817</v>
+        <v>4.281664014166013</v>
       </c>
       <c r="H2">
-        <v>0.3560789142949177</v>
+        <v>0.3509916937138096</v>
       </c>
       <c r="I2">
-        <v>0.8621448702794487</v>
+        <v>0.853615559829437</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.80053267444356</v>
+        <v>0.8271820525765932</v>
       </c>
       <c r="C3">
-        <v>0.612832225785954</v>
+        <v>0.6112149985955314</v>
       </c>
       <c r="D3">
-        <v>0.6416054694598686</v>
+        <v>0.6909697111544667</v>
       </c>
       <c r="E3">
-        <v>0.8014731814736236</v>
+        <v>0.8353296701761868</v>
       </c>
       <c r="F3">
-        <v>0.2142389830469155</v>
+        <v>0.21224787148615</v>
       </c>
       <c r="G3">
-        <v>10.20859035826827</v>
+        <v>10.22920565954966</v>
       </c>
       <c r="H3">
-        <v>0.4158940079597664</v>
+        <v>0.4106086218743273</v>
       </c>
       <c r="I3">
-        <v>1.004118927220561</v>
+        <v>1.016677803056342</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8493397463712098</v>
+        <v>0.8299708573007165</v>
       </c>
       <c r="C4">
-        <v>0.5720617671180216</v>
+        <v>0.6148936475448046</v>
       </c>
       <c r="D4">
-        <v>1.390717678976124</v>
+        <v>0.6847016611718187</v>
       </c>
       <c r="E4">
-        <v>1.637410335402226</v>
+        <v>0.8249707265609887</v>
       </c>
       <c r="F4">
-        <v>0.2168118580346489</v>
+        <v>0.2125793597845376</v>
       </c>
       <c r="G4">
-        <v>16.10037191849168</v>
+        <v>9.522739824346772</v>
       </c>
       <c r="H4">
-        <v>0.399620669620193</v>
+        <v>0.4122707363529515</v>
       </c>
       <c r="I4">
-        <v>0.9795632576594129</v>
+        <v>1.024251704567988</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.070183749104134</v>
+        <v>1.62336650943424</v>
       </c>
       <c r="C5">
-        <v>0.6589862190714834</v>
+        <v>0.565840893558763</v>
       </c>
       <c r="D5">
-        <v>1.697998839466437</v>
+        <v>5.590540217738342</v>
       </c>
       <c r="E5">
-        <v>1.586642332111524</v>
+        <v>3.443794229614053</v>
       </c>
       <c r="F5">
-        <v>0.2274161573371865</v>
+        <v>0.2148829640731117</v>
       </c>
       <c r="G5">
-        <v>25.0958493858064</v>
+        <v>79.43850855558318</v>
       </c>
       <c r="H5">
-        <v>0.4353166644887355</v>
+        <v>0.3931261499634138</v>
       </c>
       <c r="I5">
-        <v>1.076547464058153</v>
+        <v>0.9884911633718527</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.10673458558518</v>
+        <v>1.818061203487019</v>
       </c>
       <c r="C6">
-        <v>0.6567799768707628</v>
+        <v>0.6618329311136258</v>
       </c>
       <c r="D6">
-        <v>2.021864611866098</v>
+        <v>5.012068338663909</v>
       </c>
       <c r="E6">
-        <v>1.826873975206122</v>
+        <v>2.75682046844783</v>
       </c>
       <c r="F6">
-        <v>0.2194387672562912</v>
+        <v>0.2232000785510934</v>
       </c>
       <c r="G6">
-        <v>31.36995509271803</v>
+        <v>70.81191720706144</v>
       </c>
       <c r="H6">
-        <v>0.4333433920950649</v>
+        <v>0.4398711074824408</v>
       </c>
       <c r="I6">
-        <v>1.100394597133338</v>
+        <v>1.164077186437815</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.40982501785926</v>
+        <v>1.866885788167447</v>
       </c>
       <c r="C7">
-        <v>0.7962529140188287</v>
+        <v>0.6532402631449175</v>
       </c>
       <c r="D7">
-        <v>1.913910774748167</v>
+        <v>5.661405250130684</v>
       </c>
       <c r="E7">
-        <v>1.357552001491882</v>
+        <v>3.032539690437076</v>
       </c>
       <c r="F7">
-        <v>0.2145170893444929</v>
+        <v>0.2222807382378933</v>
       </c>
       <c r="G7">
-        <v>19.69734441437219</v>
+        <v>76.68925771153039</v>
       </c>
       <c r="H7">
-        <v>0.4407257129242356</v>
+        <v>0.4359258310075718</v>
       </c>
       <c r="I7">
-        <v>1.453360698327335</v>
+        <v>1.142524200271241</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1.959247250829587</v>
+        <v>2.173583111142386</v>
       </c>
       <c r="C8">
-        <v>1.276716202277739</v>
+        <v>0.8911819237882475</v>
       </c>
       <c r="D8">
-        <v>2.170843783398164</v>
+        <v>4.9385185233667</v>
       </c>
       <c r="E8">
-        <v>1.107998892165847</v>
+        <v>2.272063349245995</v>
       </c>
       <c r="F8">
-        <v>0.3210257840485378</v>
+        <v>0.2177047745207797</v>
       </c>
       <c r="G8">
-        <v>19.41021907600435</v>
+        <v>64.9032416646409</v>
       </c>
       <c r="H8">
-        <v>0.6804798572634589</v>
+        <v>0.4792180567722953</v>
       </c>
       <c r="I8">
-        <v>2.213627516161146</v>
+        <v>1.647022553833671</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2.270482596061766</v>
+        <v>4.109739326196543</v>
       </c>
       <c r="C9">
-        <v>0.9772731123483902</v>
+        <v>0.9703343839059059</v>
       </c>
       <c r="D9">
-        <v>4.180291601263784</v>
+        <v>10.76761078067804</v>
       </c>
       <c r="E9">
-        <v>1.841146727358603</v>
+        <v>2.620022810702981</v>
       </c>
       <c r="F9">
-        <v>0.2184672420395343</v>
+        <v>0.2191907994003119</v>
       </c>
       <c r="G9">
-        <v>44.83440109064081</v>
+        <v>110.4970172578648</v>
       </c>
       <c r="H9">
-        <v>0.5078242080858898</v>
+        <v>0.5012391988922189</v>
       </c>
       <c r="I9">
-        <v>2.100158403512908</v>
+        <v>2.38414189314647</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.468373163546003</v>
+        <v>4.450756068883417</v>
       </c>
       <c r="C10">
-        <v>0.9954581437602229</v>
+        <v>0.9615000612707243</v>
       </c>
       <c r="D10">
-        <v>4.468888203663496</v>
+        <v>11.47737567951154</v>
       </c>
       <c r="E10">
-        <v>1.81045891669135</v>
+        <v>2.578747408727553</v>
       </c>
       <c r="F10">
-        <v>0.2182409061432503</v>
+        <v>0.2119511890734919</v>
       </c>
       <c r="G10">
-        <v>47.1522178103795</v>
+        <v>117.840047882372</v>
       </c>
       <c r="H10">
-        <v>0.4767834290478285</v>
+        <v>0.474125103200956</v>
       </c>
       <c r="I10">
-        <v>2.430490821763029</v>
+        <v>2.753679965819646</v>
       </c>
     </row>
   </sheetData>
